--- a/graphical_effect/appqml/graphical_effect/EffectFiles/readme.xlsx
+++ b/graphical_effect/appqml/graphical_effect/EffectFiles/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Blend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +457,7 @@
   <dimension ref="C1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,6 +494,9 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">

--- a/graphical_effect/appqml/graphical_effect/EffectFiles/readme.xlsx
+++ b/graphical_effect/appqml/graphical_effect/EffectFiles/readme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Blend</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,7 +457,7 @@
   <dimension ref="C1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,105 +510,168 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>9</v>
       </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>11</v>
       </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>13</v>
       </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
